--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -5,24 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Session Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C6EE3-5995-4BEE-BA70-67EEF407B261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D9A3A8-349B-4B97-A332-5725E7245742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Master" sheetId="2" r:id="rId1"/>
-    <sheet name="Input" sheetId="1" r:id="rId2"/>
-    <sheet name="Queue Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Output" sheetId="4" r:id="rId4"/>
-    <sheet name="Validation Sheet" sheetId="5" r:id="rId5"/>
+    <sheet name="RegistrationQStatus" sheetId="7" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId2"/>
+    <sheet name="Input" sheetId="1" r:id="rId3"/>
+    <sheet name="RegQGetItemData" sheetId="6" r:id="rId4"/>
+    <sheet name="WriterOutput" sheetId="4" r:id="rId5"/>
+    <sheet name="Validation Sheet" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="69">
   <si>
     <t>last name</t>
   </si>
@@ -150,17 +160,128 @@
     <t>Action Name</t>
   </si>
   <si>
-    <t>Queue Data</t>
-  </si>
-  <si>
-    <t>Output</t>
+    <t>RegistrationQStatus</t>
+  </si>
+  <si>
+    <t>WriterOutput</t>
+  </si>
+  <si>
+    <t>RegQGetItemData</t>
+  </si>
+  <si>
+    <t>Work Queues::Get Next Item</t>
+  </si>
+  <si>
+    <t>Submit Regstration process</t>
+  </si>
+  <si>
+    <t>process queue data</t>
+  </si>
+  <si>
+    <t>Blueprism.Automate.clsWorkQueuesActions</t>
+  </si>
+  <si>
+    <t>Get Next Item</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Writer1</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Submit registration</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>item-id</t>
+  </si>
+  <si>
+    <t>item-key</t>
+  </si>
+  <si>
+    <t>loaded-time</t>
+  </si>
+  <si>
+    <t>completed-time</t>
+  </si>
+  <si>
+    <t>work-time-seconds</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1f96bd97-dcd7-4be0-9384-a9e1750b9d32</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>4fc9f9d5-000c-4911-9469-be7a67cb9317</t>
+  </si>
+  <si>
+    <t>428815dd-bdc8-40d5-ab3b-0d798a6be58e</t>
+  </si>
+  <si>
+    <t>SourceType</t>
+  </si>
+  <si>
+    <t>Queue Name</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>First name:Data:collection</t>
+  </si>
+  <si>
+    <t>last name:Data:collection</t>
+  </si>
+  <si>
+    <t>Country:Data:collection</t>
+  </si>
+  <si>
+    <t>address:Data:collection</t>
+  </si>
+  <si>
+    <t>zip:Data:collection</t>
+  </si>
+  <si>
+    <t>phone:Data:collection</t>
+  </si>
+  <si>
+    <t>Attempts</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +304,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -227,18 +342,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,8 +694,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB829B95-7B30-455E-94E8-1A8496B4B48A}">
+  <dimension ref="A2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44271.451817129629</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44271.451817129629</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44271.451817129629</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44271.451828703706</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44271.451817129629</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44271.451840277776</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDEE7D7-1749-4A5E-AAE6-B78B9D00B6E7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -551,41 +811,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:C4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -695,175 +968,175 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -873,278 +1146,998 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23093EA-CF41-4DFD-9D4B-DCE9308740F3}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8946B-D36E-4A24-B49F-3AC6451824A7}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>110030</v>
+      </c>
+      <c r="J10">
+        <v>4532342637</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>34343</v>
+      </c>
+      <c r="J15">
+        <v>58335432123</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>3434</v>
+      </c>
+      <c r="J20">
+        <v>34342</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>110030</v>
+      </c>
+      <c r="G6">
+        <v>4532342637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>34343</v>
+      </c>
+      <c r="G11">
+        <v>58335432123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>3434</v>
+      </c>
+      <c r="G16">
+        <v>34342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA6BEB7-EBAD-44C6-B98A-D6F21E2AA860}">
   <dimension ref="P12:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="12" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D9A3A8-349B-4B97-A332-5725E7245742}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373C729-5A80-41F3-AC69-92668B5C68A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegistrationQStatus" sheetId="7" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
   <si>
     <t>last name</t>
   </si>
@@ -199,6 +199,21 @@
     <t>submit</t>
   </si>
   <si>
+    <t xml:space="preserve">                                       </t>
+  </si>
+  <si>
+    <t>Test Case No</t>
+  </si>
+  <si>
+    <t>WriterOutput address Test Result</t>
+  </si>
+  <si>
+    <t>RegQGetItemData page phone Test Result</t>
+  </si>
+  <si>
+    <t>RegistrationQStatus page - Test Result</t>
+  </si>
+  <si>
     <t>item-id</t>
   </si>
   <si>
@@ -217,16 +232,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>1f96bd97-dcd7-4be0-9384-a9e1750b9d32</t>
+    <t>dfb31a4b-0363-41be-ab2c-380cef38fc87</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>4fc9f9d5-000c-4911-9469-be7a67cb9317</t>
-  </si>
-  <si>
-    <t>428815dd-bdc8-40d5-ab3b-0d798a6be58e</t>
+    <t>e02a8117-3862-4da7-9d6c-ae72f5e5fa35</t>
+  </si>
+  <si>
+    <t>142846c1-d706-4c55-854f-4c236cad5801</t>
   </si>
   <si>
     <t>SourceType</t>
@@ -236,9 +251,6 @@
   </si>
   <si>
     <t>input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                       </t>
   </si>
   <si>
     <t>Item ID</t>
@@ -375,14 +387,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,6 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,99 +715,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB829B95-7B30-455E-94E8-1A8496B4B48A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2950DA4-07A2-45D7-B194-D4924ED6BE20}">
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>44271.451817129629</v>
-      </c>
-      <c r="D3" s="6">
-        <v>44271.451817129629</v>
+      <c r="C3" s="14">
+        <v>44271.497928240744</v>
+      </c>
+      <c r="D3" s="14">
+        <v>44271.497939814813</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
-        <v>44271.451817129629</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44271.451828703706</v>
+      <c r="C4" s="14">
+        <v>44271.497928240744</v>
+      </c>
+      <c r="D4" s="14">
+        <v>44271.49795138889</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6">
-        <v>44271.451817129629</v>
-      </c>
-      <c r="D5" s="6">
-        <v>44271.451840277776</v>
+      <c r="C5" s="14">
+        <v>44271.497928240744</v>
+      </c>
+      <c r="D5" s="14">
+        <v>44271.49796296296</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +832,7 @@
       <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
@@ -829,7 +844,7 @@
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
@@ -837,7 +852,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
@@ -845,7 +860,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4"/>
     </row>
   </sheetData>
@@ -863,7 +878,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,175 +983,175 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1161,6 +1176,7 @@
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1199,25 +1215,45 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1225,73 +1261,73 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" t="s">
-        <v>48</v>
-      </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -1317,27 +1353,27 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1345,35 +1381,35 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1399,27 +1435,27 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1427,35 +1463,35 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1481,27 +1517,27 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1509,27 +1545,27 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1537,22 +1573,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,339 +1651,339 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>110030</v>
+      </c>
+      <c r="G5">
+        <v>4532342637</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>110030</v>
-      </c>
-      <c r="G6">
-        <v>4532342637</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>34343</v>
+      </c>
+      <c r="G10">
+        <v>58335432123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>34343</v>
-      </c>
-      <c r="G11">
-        <v>58335432123</v>
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>3434</v>
+      </c>
+      <c r="G15">
+        <v>34342</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>3434</v>
-      </c>
-      <c r="G16">
-        <v>34342</v>
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1960,189 +1996,514 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA6BEB7-EBAD-44C6-B98A-D6F21E2AA860}">
-  <dimension ref="P12:Z24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="12" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P12" s="9" t="s">
+    <row r="1" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>Input!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="e">
+        <f>IF(AND(Input!B2=#REF!,#REF! = "Completed"), "pass", "fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="8" t="e">
+        <f>IF(VLOOKUP(Input!B2, RegQGetItemData!#REF!,6, FALSE)=Input!G2, "pass", "fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="8" t="e">
+        <f>IF(VLOOKUP(Input!B2, WriterOutput!#REF!,4, FALSE)=Input!E2,"pass","fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>Input!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="e">
+        <f>IF(AND(Input!B3=#REF!,#REF! = "Completed"), "pass", "fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="8" t="e">
+        <f>IF(VLOOKUP(Input!B3, RegQGetItemData!#REF!,6, FALSE)=Input!G3, "pass", "fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="8" t="e">
+        <f>IF(VLOOKUP(Input!B3, WriterOutput!#REF!,4, FALSE)=Input!E3,"pass","fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>Input!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="e">
+        <f>IF(AND(Input!B4=#REF!,#REF! = "Completed"), "pass", "fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="8" t="e">
+        <f>IF(VLOOKUP(Input!B4, RegQGetItemData!#REF!,6, FALSE)=Input!G4, "pass", "fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="8" t="e">
+        <f>IF(VLOOKUP(Input!B4, WriterOutput!#REF!,4, FALSE)=Input!E4,"pass","fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="P12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="13" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-    </row>
-    <row r="14" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-    </row>
-    <row r="16" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-    </row>
-    <row r="17" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-    </row>
-    <row r="18" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-    </row>
-    <row r="19" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-    </row>
-    <row r="20" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-    </row>
-    <row r="21" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-    </row>
-    <row r="22" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-    </row>
-    <row r="23" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-    </row>
-    <row r="24" spans="16:26" x14ac:dyDescent="0.25">
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="P12:Z24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3373C729-5A80-41F3-AC69-92668B5C68A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7E147-1EC2-4B5F-B210-334639C731CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RegistrationQStatus" sheetId="7" r:id="rId1"/>
-    <sheet name="Master" sheetId="2" r:id="rId2"/>
-    <sheet name="Input" sheetId="1" r:id="rId3"/>
-    <sheet name="RegQGetItemData" sheetId="6" r:id="rId4"/>
-    <sheet name="WriterOutput" sheetId="4" r:id="rId5"/>
-    <sheet name="Validation Sheet" sheetId="5" r:id="rId6"/>
+    <sheet name="Master" sheetId="2" r:id="rId1"/>
+    <sheet name="Input" sheetId="1" r:id="rId2"/>
+    <sheet name="RegQGetItemData" sheetId="6" r:id="rId3"/>
+    <sheet name="WriterOutput" sheetId="4" r:id="rId4"/>
+    <sheet name="Validation Sheet" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>last name</t>
   </si>
@@ -199,9 +198,6 @@
     <t>submit</t>
   </si>
   <si>
-    <t xml:space="preserve">                                       </t>
-  </si>
-  <si>
     <t>Test Case No</t>
   </si>
   <si>
@@ -212,81 +208,6 @@
   </si>
   <si>
     <t>RegistrationQStatus page - Test Result</t>
-  </si>
-  <si>
-    <t>item-id</t>
-  </si>
-  <si>
-    <t>item-key</t>
-  </si>
-  <si>
-    <t>loaded-time</t>
-  </si>
-  <si>
-    <t>completed-time</t>
-  </si>
-  <si>
-    <t>work-time-seconds</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>dfb31a4b-0363-41be-ab2c-380cef38fc87</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>e02a8117-3862-4da7-9d6c-ae72f5e5fa35</t>
-  </si>
-  <si>
-    <t>142846c1-d706-4c55-854f-4c236cad5801</t>
-  </si>
-  <si>
-    <t>SourceType</t>
-  </si>
-  <si>
-    <t>Queue Name</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>First name:Data:collection</t>
-  </si>
-  <si>
-    <t>last name:Data:collection</t>
-  </si>
-  <si>
-    <t>Country:Data:collection</t>
-  </si>
-  <si>
-    <t>address:Data:collection</t>
-  </si>
-  <si>
-    <t>zip:Data:collection</t>
-  </si>
-  <si>
-    <t>phone:Data:collection</t>
-  </si>
-  <si>
-    <t>Attempts</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>country</t>
   </si>
 </sst>
 </file>
@@ -387,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -418,7 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,106 +635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2950DA4-07A2-45D7-B194-D4924ED6BE20}">
-  <dimension ref="A2:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="14">
-        <v>44271.497928240744</v>
-      </c>
-      <c r="D3" s="14">
-        <v>44271.497939814813</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14">
-        <v>44271.497928240744</v>
-      </c>
-      <c r="D4" s="14">
-        <v>44271.49795138889</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14">
-        <v>44271.497928240744</v>
-      </c>
-      <c r="D5" s="14">
-        <v>44271.49796296296</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDEE7D7-1749-4A5E-AAE6-B78B9D00B6E7}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
@@ -1161,12 +986,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8946B-D36E-4A24-B49F-3AC6451824A7}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,7 +1005,7 @@
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1214,7 +1039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
@@ -1222,374 +1047,6 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>110030</v>
-      </c>
-      <c r="J10">
-        <v>4532342637</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>34343</v>
-      </c>
-      <c r="J15">
-        <v>58335432123</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20">
-        <v>3434</v>
-      </c>
-      <c r="J20">
-        <v>34342</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1599,12 +1056,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1073,7 @@
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1107,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>38</v>
       </c>
@@ -1658,333 +1115,6 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>110030</v>
-      </c>
-      <c r="G5">
-        <v>4532342637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>34343</v>
-      </c>
-      <c r="G10">
-        <v>58335432123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>3434</v>
-      </c>
-      <c r="G15">
-        <v>34342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1994,11 +1124,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA6BEB7-EBAD-44C6-B98A-D6F21E2AA860}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2012,16 +1142,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>

--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C7E147-1EC2-4B5F-B210-334639C731CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3CDBD4-82A1-4ECE-8EAF-82E56C8F8405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
     <sheet name="Input" sheetId="1" r:id="rId2"/>
-    <sheet name="RegQGetItemData" sheetId="6" r:id="rId3"/>
-    <sheet name="WriterOutput" sheetId="4" r:id="rId4"/>
-    <sheet name="Validation Sheet" sheetId="5" r:id="rId5"/>
+    <sheet name="Expected Output" sheetId="8" r:id="rId3"/>
+    <sheet name="RegistrationQStatus" sheetId="9" r:id="rId4"/>
+    <sheet name="RegQGetItemData" sheetId="6" r:id="rId5"/>
+    <sheet name="WriterOutput" sheetId="4" r:id="rId6"/>
+    <sheet name="Validation Sheet" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>last name</t>
   </si>
@@ -134,10 +136,6 @@
 Input data needs to be copied to this sheet, so that validation formulas can be applied to output extracted from session logs/other sources</t>
   </si>
   <si>
-    <t xml:space="preserve">This sheet is for validation and will not be processed by BP Test Suite master. Tester will need to write validation formulas as per input data to this sheet, so that output can be validated once output(s) gets populated from session data.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Case no </t>
   </si>
   <si>
@@ -208,6 +206,22 @@
   </si>
   <si>
     <t>RegistrationQStatus page - Test Result</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>This sheet is for Output and will not be processed by BP Test Suite master. Expected Output test Data is known by tester and will be as per test cases being tested. 
+Expected Output can be copied to this sheet, so that validation formulas can be applied to output extracted from session logs/other sources</t>
+  </si>
+  <si>
+    <t>Queue Status</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>This sheet is for validation and will not be processed by BP Test Suite master. Tester will need to write validation formulas as per Input/Expected Output data in worksheets to this sheet, so that output can be validated once output(s) gets populated from session data.</t>
   </si>
 </sst>
 </file>
@@ -252,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -276,26 +290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -308,9 +302,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -324,19 +317,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDEE7D7-1749-4A5E-AAE6-B78B9D00B6E7}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,46 +641,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="C1:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -703,7 +747,296 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>110030</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4532342637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>34343</v>
+      </c>
+      <c r="G3" s="1">
+        <v>58335432123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3434</v>
+      </c>
+      <c r="G4" s="1">
+        <v>34342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H8:R20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3581A383-1D09-497F-9775-4467B7C96BCA}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,270 +1046,283 @@
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>110030</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>4532342637</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>34343</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>58335432123</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3434</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>34342</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
+      <c r="H8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -986,7 +1332,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BA6AF-3E01-44FD-BE68-34017D3CC402}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8946B-D36E-4A24-B49F-3AC6451824A7}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1006,47 +1371,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1056,12 +1421,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,50 +1436,52 @@
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1124,12 +1491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA6BEB7-EBAD-44C6-B98A-D6F21E2AA860}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,493 +1508,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>Input!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="e">
+      <c r="B2" s="7" t="e">
         <f>IF(AND(Input!B2=#REF!,#REF! = "Completed"), "pass", "fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="8" t="e">
+      <c r="C2" s="7" t="e">
         <f>IF(VLOOKUP(Input!B2, RegQGetItemData!#REF!,6, FALSE)=Input!G2, "pass", "fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="8" t="e">
+      <c r="D2" s="7" t="e">
         <f>IF(VLOOKUP(Input!B2, WriterOutput!#REF!,4, FALSE)=Input!E2,"pass","fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>Input!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="e">
+      <c r="B3" s="7" t="e">
         <f>IF(AND(Input!B3=#REF!,#REF! = "Completed"), "pass", "fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="8" t="e">
+      <c r="C3" s="7" t="e">
         <f>IF(VLOOKUP(Input!B3, RegQGetItemData!#REF!,6, FALSE)=Input!G3, "pass", "fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="8" t="e">
+      <c r="D3" s="7" t="e">
         <f>IF(VLOOKUP(Input!B3, WriterOutput!#REF!,4, FALSE)=Input!E3,"pass","fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>Input!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="e">
+      <c r="B4" s="7" t="e">
         <f>IF(AND(Input!B4=#REF!,#REF! = "Completed"), "pass", "fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="8" t="e">
+      <c r="C4" s="7" t="e">
         <f>IF(VLOOKUP(Input!B4, RegQGetItemData!#REF!,6, FALSE)=Input!G4, "pass", "fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="D4" s="8" t="e">
+      <c r="D4" s="7" t="e">
         <f>IF(VLOOKUP(Input!B4, WriterOutput!#REF!,4, FALSE)=Input!E4,"pass","fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="P12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="P12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3CDBD4-82A1-4ECE-8EAF-82E56C8F8405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34D721-92A1-43A5-871A-DC61D1621F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34D721-92A1-43A5-871A-DC61D1621F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BF80C-041C-4EEF-92A3-7FB464767A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="78">
   <si>
     <t>last name</t>
   </si>
@@ -202,12 +202,6 @@
     <t>WriterOutput address Test Result</t>
   </si>
   <si>
-    <t>RegQGetItemData page phone Test Result</t>
-  </si>
-  <si>
-    <t>RegistrationQStatus page - Test Result</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -222,6 +216,96 @@
   </si>
   <si>
     <t>This sheet is for validation and will not be processed by BP Test Suite master. Tester will need to write validation formulas as per Input/Expected Output data in worksheets to this sheet, so that output can be validated once output(s) gets populated from session data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME: RegistrationQStatus - Input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME:
+RegistrationQStatus - Expected Output </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM STATUS:
+RegistrationQStatus - Expected Output </t>
+  </si>
+  <si>
+    <t>PHONE:
+RegQGetItemData - Expected Output</t>
+  </si>
+  <si>
+    <t>item-id</t>
+  </si>
+  <si>
+    <t>item-key</t>
+  </si>
+  <si>
+    <t>loaded-time</t>
+  </si>
+  <si>
+    <t>completed-time</t>
+  </si>
+  <si>
+    <t>work-time-seconds</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>4c33a415-6bfb-40dd-adb9-87b29a75d54a</t>
+  </si>
+  <si>
+    <t>dc2b2a0c-6193-4f3a-aa7b-24851f8a9709</t>
+  </si>
+  <si>
+    <t>16c062d4-5953-4a12-9d91-c42abc31eda2</t>
+  </si>
+  <si>
+    <t>SourceType</t>
+  </si>
+  <si>
+    <t>Queue Name</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>First name:Data:collection</t>
+  </si>
+  <si>
+    <t>last name:Data:collection</t>
+  </si>
+  <si>
+    <t>Country:Data:collection</t>
+  </si>
+  <si>
+    <t>address:Data:collection</t>
+  </si>
+  <si>
+    <t>zip:Data:collection</t>
+  </si>
+  <si>
+    <t>phone:Data:collection</t>
+  </si>
+  <si>
+    <t>Attempts</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -302,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -317,6 +401,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,11 +416,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -629,7 +735,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +753,7 @@
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
@@ -659,7 +765,7 @@
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -667,7 +773,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
@@ -675,62 +781,62 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="8"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
+      <c r="C22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -853,175 +959,175 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1072,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1098,7 +1204,7 @@
         <v>4532342637</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1124,7 +1230,7 @@
         <v>58335432123</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1150,179 +1256,179 @@
         <v>34342</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="H8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.25">
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1334,29 +1440,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BA6AF-3E01-44FD-BE68-34017D3CC402}">
-  <dimension ref="A1"/>
+  <dimension ref="A6:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44273.502465277779</v>
+      </c>
+      <c r="D7" s="13">
+        <v>44273.502476851849</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44273.502465277779</v>
+      </c>
+      <c r="D8" s="13">
+        <v>44273.502476851849</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44273.502465277779</v>
+      </c>
+      <c r="D9" s="13">
+        <v>44273.502476851849</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8946B-D36E-4A24-B49F-3AC6451824A7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1550,7 @@
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1387,7 +1567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1404,14 +1584,382 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>110030</v>
+      </c>
+      <c r="J10">
+        <v>4532342637</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>34343</v>
+      </c>
+      <c r="J15">
+        <v>58335432123</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>3434</v>
+      </c>
+      <c r="J20">
+        <v>34342</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1423,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1988,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1457,7 +2005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1474,14 +2022,341 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>110030</v>
+      </c>
+      <c r="G5">
+        <v>4532342637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>34343</v>
+      </c>
+      <c r="G10">
+        <v>58335432123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>3434</v>
+      </c>
+      <c r="G15">
+        <v>34342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1493,121 +2368,153 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA6BEB7-EBAD-44C6-B98A-D6F21E2AA860}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>Input!A2</f>
         <v>1</v>
       </c>
       <c r="B2" s="7" t="e">
-        <f>IF(AND(Input!B2=#REF!,#REF! = "Completed"), "pass", "fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B2,RegistrationQStatus!#REF!,5,FALSE)='Expected Output'!H2,"pass","fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="7" t="e">
-        <f>IF(VLOOKUP(Input!B2, RegQGetItemData!#REF!,6, FALSE)=Input!G2, "pass", "fail")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" s="7" t="e">
-        <f>IF(VLOOKUP(Input!B2, WriterOutput!#REF!,4, FALSE)=Input!E2,"pass","fail")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="7" t="str">
+        <f>IF(ISERROR(VLOOKUP(Input!B2,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
+        <v>fail</v>
+      </c>
+      <c r="D2" s="7" t="str">
+        <f>IF(ISERROR(VLOOKUP('Expected Output'!B2,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
+        <v>fail</v>
+      </c>
+      <c r="E2" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B2,RegQGetItemData!$E$10:$J$50,6,FALSE)='Expected Output'!G2,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="F2" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B2,WriterOutput!B4:G50,4,FALSE)='Expected Output'!E2,"pass","fail")</f>
+        <v>pass</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>Input!A3</f>
         <v>2</v>
       </c>
       <c r="B3" s="7" t="e">
-        <f>IF(AND(Input!B3=#REF!,#REF! = "Completed"), "pass", "fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B3,RegistrationQStatus!#REF!,5,FALSE)='Expected Output'!H3,"pass","fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="7" t="e">
-        <f>IF(VLOOKUP(Input!B3, RegQGetItemData!#REF!,6, FALSE)=Input!G3, "pass", "fail")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D3" s="7" t="e">
-        <f>IF(VLOOKUP(Input!B3, WriterOutput!#REF!,4, FALSE)=Input!E3,"pass","fail")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="7" t="str">
+        <f>IF(ISERROR(VLOOKUP(Input!B3,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
+        <v>fail</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>IF(ISERROR(VLOOKUP('Expected Output'!B3,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
+        <v>fail</v>
+      </c>
+      <c r="E3" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B3,RegQGetItemData!$E$10:$J$50,6,FALSE)='Expected Output'!G3,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B3,WriterOutput!B5:G51,4,FALSE)='Expected Output'!E3,"pass","fail")</f>
+        <v>pass</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>Input!A4</f>
         <v>3</v>
       </c>
       <c r="B4" s="7" t="e">
-        <f>IF(AND(Input!B4=#REF!,#REF! = "Completed"), "pass", "fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B4,RegistrationQStatus!#REF!,5,FALSE)='Expected Output'!H4,"pass","fail")</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="7" t="e">
-        <f>IF(VLOOKUP(Input!B4, RegQGetItemData!#REF!,6, FALSE)=Input!G4, "pass", "fail")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="7" t="e">
-        <f>IF(VLOOKUP(Input!B4, WriterOutput!#REF!,4, FALSE)=Input!E4,"pass","fail")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="7" t="str">
+        <f>IF(ISERROR(VLOOKUP(Input!B4,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
+        <v>fail</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>IF(ISERROR(VLOOKUP('Expected Output'!B4,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
+        <v>fail</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B4,RegQGetItemData!$E$10:$J$50,6,FALSE)='Expected Output'!G4,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B4,WriterOutput!B6:G52,4,FALSE)='Expected Output'!E4,"pass","fail")</f>
+        <v>pass</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1617,11 +2524,13 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1631,11 +2540,13 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1645,11 +2556,13 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1659,11 +2572,13 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1673,11 +2588,13 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1687,11 +2604,13 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1701,11 +2620,13 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1715,24 +2636,26 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="5"/>
-      <c r="P12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="R12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1742,22 +2665,24 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="5"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1767,22 +2692,24 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="5"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1792,22 +2719,24 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="5"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1817,22 +2746,24 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="5"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1842,22 +2773,24 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="5"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1867,22 +2800,24 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="5"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1895,19 +2830,21 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1920,19 +2857,21 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1945,61 +2884,71 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P12:Z24"/>
+    <mergeCell ref="R12:AB24"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:K18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9BF80C-041C-4EEF-92A3-7FB464767A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84996A71-1C89-4C40-BF01-09F7C29ADB3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="79">
   <si>
     <t>last name</t>
   </si>
@@ -218,9 +218,6 @@
     <t>This sheet is for validation and will not be processed by BP Test Suite master. Tester will need to write validation formulas as per Input/Expected Output data in worksheets to this sheet, so that output can be validated once output(s) gets populated from session data.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">NAME: RegistrationQStatus - Input </t>
   </si>
   <si>
@@ -236,6 +233,9 @@
 RegQGetItemData - Expected Output</t>
   </si>
   <si>
+    <t>password : admin</t>
+  </si>
+  <si>
     <t>item-id</t>
   </si>
   <si>
@@ -254,13 +254,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>4c33a415-6bfb-40dd-adb9-87b29a75d54a</t>
-  </si>
-  <si>
-    <t>dc2b2a0c-6193-4f3a-aa7b-24851f8a9709</t>
-  </si>
-  <si>
-    <t>16c062d4-5953-4a12-9d91-c42abc31eda2</t>
+    <t>dc59b1ec-3d80-46fe-9cee-db7e5043b395</t>
+  </si>
+  <si>
+    <t>8f32af13-385b-4b8f-abc6-84ccecc33109</t>
+  </si>
+  <si>
+    <t>de3a5b1b-ffa4-4519-b28f-658c188b97fe</t>
   </si>
   <si>
     <t>SourceType</t>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
   </si>
   <si>
     <t>Item ID</t>
@@ -735,7 +738,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1145,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,89 +1443,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BA6AF-3E01-44FD-BE68-34017D3CC402}">
-  <dimension ref="A6:F9"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>60</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13">
-        <v>44273.502465277779</v>
-      </c>
-      <c r="D7" s="13">
-        <v>44273.502476851849</v>
-      </c>
-      <c r="E7">
+      <c r="C3" s="13">
+        <v>44274.535509259258</v>
+      </c>
+      <c r="D3" s="13">
+        <v>44274.535520833335</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13">
-        <v>44273.502465277779</v>
-      </c>
-      <c r="D8" s="13">
-        <v>44273.502476851849</v>
-      </c>
-      <c r="E8">
+      <c r="C4" s="13">
+        <v>44274.535509259258</v>
+      </c>
+      <c r="D4" s="13">
+        <v>44274.535520833335</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13">
-        <v>44273.502465277779</v>
-      </c>
-      <c r="D9" s="13">
-        <v>44273.502476851849</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C5" s="13">
+        <v>44274.535509259258</v>
+      </c>
+      <c r="D5" s="13">
+        <v>44274.535532407404</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1533,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8946B-D36E-4A24-B49F-3AC6451824A7}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,370 +1601,350 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>110030</v>
+      </c>
+      <c r="J9">
+        <v>4532342637</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>110030</v>
-      </c>
-      <c r="J10">
-        <v>4532342637</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>34343</v>
+      </c>
+      <c r="J14">
+        <v>58335432123</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>34343</v>
-      </c>
-      <c r="J15">
-        <v>58335432123</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>3434</v>
+      </c>
+      <c r="J19">
+        <v>34342</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20">
-        <v>3434</v>
-      </c>
-      <c r="J20">
-        <v>34342</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>49</v>
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2036,13 +2022,13 @@
         <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -2079,22 +2065,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2102,13 +2088,13 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -2122,22 +2108,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2145,13 +2131,13 @@
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
@@ -2188,22 +2174,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2211,13 +2197,13 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -2231,22 +2217,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2254,13 +2240,13 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -2297,22 +2283,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2320,13 +2306,13 @@
         <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
         <v>1</v>
@@ -2340,22 +2326,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2357,7 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,6 +2368,7 @@
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
@@ -2389,16 +2376,16 @@
         <v>42</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>43</v>
@@ -2408,7 +2395,9 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
+      <c r="L1" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
@@ -2417,20 +2406,20 @@
         <f>Input!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B2,RegistrationQStatus!#REF!,5,FALSE)='Expected Output'!H2,"pass","fail")</f>
-        <v>#REF!</v>
+      <c r="B2" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B2, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H2, "pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP(Input!B2,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
-        <v>fail</v>
+        <f>IF(VLOOKUP(Input!B2,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B2,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP('Expected Output'!B2,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
-        <v>fail</v>
+        <f>IF(VLOOKUP('Expected Output'!B2,RegistrationQStatus!$B1:$B$40,1,FALSE)='Expected Output'!B2,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B2,RegQGetItemData!$E$10:$J$50,6,FALSE)='Expected Output'!G2,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B2,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G2,"pass","fail")</f>
         <v>pass</v>
       </c>
       <c r="F2" s="7" t="str">
@@ -2451,20 +2440,20 @@
         <f>Input!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B3,RegistrationQStatus!#REF!,5,FALSE)='Expected Output'!H3,"pass","fail")</f>
-        <v>#REF!</v>
+      <c r="B3" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B3, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H3, "pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP(Input!B3,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
-        <v>fail</v>
+        <f>IF(VLOOKUP(Input!B3,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B3,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP('Expected Output'!B3,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
-        <v>fail</v>
+        <f>IF(VLOOKUP('Expected Output'!B3,RegistrationQStatus!$B2:$B$40,1,FALSE)='Expected Output'!B3,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B3,RegQGetItemData!$E$10:$J$50,6,FALSE)='Expected Output'!G3,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B3,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G3,"pass","fail")</f>
         <v>pass</v>
       </c>
       <c r="F3" s="7" t="str">
@@ -2485,20 +2474,20 @@
         <f>Input!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B4,RegistrationQStatus!#REF!,5,FALSE)='Expected Output'!H4,"pass","fail")</f>
-        <v>#REF!</v>
+      <c r="B4" s="7" t="str">
+        <f>IF(VLOOKUP('Expected Output'!B4, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H4, "pass","fail")</f>
+        <v>fail</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP(Input!B4,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
-        <v>fail</v>
+        <f>IF(VLOOKUP(Input!B4,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B4,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>IF(ISERROR(VLOOKUP('Expected Output'!B4,RegistrationQStatus!#REF!,1,FALSE)),"fail","pass")</f>
-        <v>fail</v>
+        <f>IF(VLOOKUP('Expected Output'!B4,RegistrationQStatus!$B3:$B$40,1,FALSE)='Expected Output'!B4,"pass","fail")</f>
+        <v>pass</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>IF(VLOOKUP('Expected Output'!B4,RegQGetItemData!$E$10:$J$50,6,FALSE)='Expected Output'!G4,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B4,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G4,"pass","fail")</f>
         <v>pass</v>
       </c>
       <c r="F4" s="7" t="str">
@@ -2516,11 +2505,26 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B5, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H5, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B5,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B5,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B5,RegistrationQStatus!$B4:$B$40,1,FALSE)='Expected Output'!B5,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B5,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G5,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B5,WriterOutput!B7:G53,4,FALSE)='Expected Output'!E5,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -2532,11 +2536,26 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B6, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H6, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B6,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B6,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B6,RegistrationQStatus!$B5:$B$40,1,FALSE)='Expected Output'!B6,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B6,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G6,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B6,WriterOutput!B8:G54,4,FALSE)='Expected Output'!E6,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2548,11 +2567,26 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B7, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H7, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B7,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B7,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B7,RegistrationQStatus!$B6:$B$40,1,FALSE)='Expected Output'!B7,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B7,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G7,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B7,WriterOutput!B9:G55,4,FALSE)='Expected Output'!E7,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2564,11 +2598,26 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B8, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H8, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B8,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B8,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B8,RegistrationQStatus!$B7:$B$40,1,FALSE)='Expected Output'!B8,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B8,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G8,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B8,WriterOutput!B10:G56,4,FALSE)='Expected Output'!E8,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2580,11 +2629,26 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B9, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H9, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B9,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B9,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B9,RegistrationQStatus!$B8:$B$40,1,FALSE)='Expected Output'!B9,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B9,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G9,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B9,WriterOutput!B11:G57,4,FALSE)='Expected Output'!E9,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2596,11 +2660,26 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B10, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H10, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B10,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B10,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B10,RegistrationQStatus!$B9:$B$40,1,FALSE)='Expected Output'!B10,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B10,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G10,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B10,WriterOutput!B12:G58,4,FALSE)='Expected Output'!E10,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2612,11 +2691,26 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B11, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H11, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B11,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B11,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B11,RegistrationQStatus!$B10:$B$40,1,FALSE)='Expected Output'!B11,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B11,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G11,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B11,WriterOutput!B13:G59,4,FALSE)='Expected Output'!E11,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2628,11 +2722,26 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B12, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H12, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B12,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B12,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B12,RegistrationQStatus!$B11:$B$40,1,FALSE)='Expected Output'!B12,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B12,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G12,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B12,WriterOutput!B14:G60,4,FALSE)='Expected Output'!E12,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2657,11 +2766,26 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B13, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H13, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B13,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B13,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B13,RegistrationQStatus!$B12:$B$40,1,FALSE)='Expected Output'!B13,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B13,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G13,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B13,WriterOutput!B15:G61,4,FALSE)='Expected Output'!E13,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2684,11 +2808,26 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B14, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H14, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B14,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B14,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B14,RegistrationQStatus!$B13:$B$40,1,FALSE)='Expected Output'!B14,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B14,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G14,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B14,WriterOutput!B16:G62,4,FALSE)='Expected Output'!E14,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2711,11 +2850,26 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B15, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H15, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B15,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B15,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B15,RegistrationQStatus!$B14:$B$40,1,FALSE)='Expected Output'!B15,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B15,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G15,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B15,WriterOutput!B17:G63,4,FALSE)='Expected Output'!E15,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2738,11 +2892,26 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B16, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H16, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B16,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B16,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B16,RegistrationQStatus!$B15:$B$40,1,FALSE)='Expected Output'!B16,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B16,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G16,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B16,WriterOutput!B18:G64,4,FALSE)='Expected Output'!E16,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2765,11 +2934,26 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B17, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H17, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B17,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B17,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B17,RegistrationQStatus!$B16:$B$40,1,FALSE)='Expected Output'!B17,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B17,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G17,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B17,WriterOutput!B19:G65,4,FALSE)='Expected Output'!E17,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2792,11 +2976,26 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B18, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H18, "pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" s="7" t="e">
+        <f>IF(VLOOKUP(Input!B18,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B18,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B18,RegistrationQStatus!$B17:$B$40,1,FALSE)='Expected Output'!B18,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B18,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G18,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <f>IF(VLOOKUP('Expected Output'!B18,WriterOutput!B20:G66,4,FALSE)='Expected Output'!E18,"pass","fail")</f>
+        <v>#N/A</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2938,6 +3137,7 @@
       <c r="AB24" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="i34SqedyE/keD+L6KHzSmEdj3GzNEb87YtpoIR1pvpi7y5/OywIv0f3/k8clvCkI4H/AwkLL9ue/3x9E4WruVg==" saltValue="0ra1NC2R20JvHowkJDT36Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="R12:AB24"/>
   </mergeCells>

--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84996A71-1C89-4C40-BF01-09F7C29ADB3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D2DB1-D323-45F5-8800-5CC6B4845892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>last name</t>
   </si>
@@ -234,81 +234,6 @@
   </si>
   <si>
     <t>password : admin</t>
-  </si>
-  <si>
-    <t>item-id</t>
-  </si>
-  <si>
-    <t>item-key</t>
-  </si>
-  <si>
-    <t>loaded-time</t>
-  </si>
-  <si>
-    <t>completed-time</t>
-  </si>
-  <si>
-    <t>work-time-seconds</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>dc59b1ec-3d80-46fe-9cee-db7e5043b395</t>
-  </si>
-  <si>
-    <t>8f32af13-385b-4b8f-abc6-84ccecc33109</t>
-  </si>
-  <si>
-    <t>de3a5b1b-ffa4-4519-b28f-658c188b97fe</t>
-  </si>
-  <si>
-    <t>SourceType</t>
-  </si>
-  <si>
-    <t>Queue Name</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                       </t>
-  </si>
-  <si>
-    <t>Item ID</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>First name:Data:collection</t>
-  </si>
-  <si>
-    <t>last name:Data:collection</t>
-  </si>
-  <si>
-    <t>Country:Data:collection</t>
-  </si>
-  <si>
-    <t>address:Data:collection</t>
-  </si>
-  <si>
-    <t>zip:Data:collection</t>
-  </si>
-  <si>
-    <t>phone:Data:collection</t>
-  </si>
-  <si>
-    <t>Attempts</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>country</t>
   </si>
 </sst>
 </file>
@@ -389,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -419,7 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1443,7 +1367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BA6AF-3E01-44FD-BE68-34017D3CC402}">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1451,98 +1375,17 @@
   <cols>
     <col min="6" max="6" width="47.140625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="13">
-        <v>44274.535509259258</v>
-      </c>
-      <c r="D3" s="13">
-        <v>44274.535520833335</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13">
-        <v>44274.535509259258</v>
-      </c>
-      <c r="D4" s="13">
-        <v>44274.535520833335</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="13">
-        <v>44274.535509259258</v>
-      </c>
-      <c r="D5" s="13">
-        <v>44274.535532407404</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8946B-D36E-4A24-B49F-3AC6451824A7}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1399,7 @@
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +1433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -1598,354 +1441,6 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>110030</v>
-      </c>
-      <c r="J9">
-        <v>4532342637</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14">
-        <v>34343</v>
-      </c>
-      <c r="J14">
-        <v>58335432123</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19">
-        <v>3434</v>
-      </c>
-      <c r="J19">
-        <v>34342</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1957,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,7 +1469,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1991,7 +1486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +1503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
@@ -2016,333 +1511,6 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>110030</v>
-      </c>
-      <c r="G5">
-        <v>4532342637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>34343</v>
-      </c>
-      <c r="G10">
-        <v>58335432123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>3434</v>
-      </c>
-      <c r="G15">
-        <v>34342</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2356,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA6BEB7-EBAD-44C6-B98A-D6F21E2AA860}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2406,25 +1574,25 @@
         <f>Input!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B2, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H2, "pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="C2" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C2" s="7" t="e">
         <f>IF(VLOOKUP(Input!B2,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B2,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="D2" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B2,RegistrationQStatus!$B1:$B$40,1,FALSE)='Expected Output'!B2,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="E2" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B2,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G2,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="F2" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B2,WriterOutput!B4:G50,4,FALSE)='Expected Output'!E2,"pass","fail")</f>
-        <v>pass</v>
+        <v>#N/A</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -2440,25 +1608,25 @@
         <f>Input!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B3, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H3, "pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="C3" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="7" t="e">
         <f>IF(VLOOKUP(Input!B3,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B3,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="D3" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B3,RegistrationQStatus!$B2:$B$40,1,FALSE)='Expected Output'!B3,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="E3" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B3,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G3,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="F3" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B3,WriterOutput!B5:G51,4,FALSE)='Expected Output'!E3,"pass","fail")</f>
-        <v>pass</v>
+        <v>#N/A</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -2474,25 +1642,25 @@
         <f>Input!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B4, RegistrationQStatus!$B$1:$F$9,5,FALSE)='Expected Output'!H4, "pass","fail")</f>
-        <v>fail</v>
-      </c>
-      <c r="C4" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="7" t="e">
         <f>IF(VLOOKUP(Input!B4,RegistrationQStatus!$B$1:$B$40,1,FALSE)=Input!B4,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="D4" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B4,RegistrationQStatus!$B3:$B$40,1,FALSE)='Expected Output'!B4,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="E4" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B4,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G4,"pass","fail")</f>
-        <v>pass</v>
-      </c>
-      <c r="F4" s="7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="7" t="e">
         <f>IF(VLOOKUP('Expected Output'!B4,WriterOutput!B6:G52,4,FALSE)='Expected Output'!E4,"pass","fail")</f>
-        <v>pass</v>
+        <v>#N/A</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>

--- a/Test Results/Submit Regstration Process.xlsx
+++ b/Test Results/Submit Regstration Process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\BluePrism-Automated-Testing\Test Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0D2DB1-D323-45F5-8800-5CC6B4845892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD50369-DE5E-4DB3-A8D8-2D931436F773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Expected Output" sheetId="8" r:id="rId3"/>
     <sheet name="RegistrationQStatus" sheetId="9" r:id="rId4"/>
     <sheet name="RegQGetItemData" sheetId="6" r:id="rId5"/>
-    <sheet name="WriterOutput" sheetId="4" r:id="rId6"/>
-    <sheet name="Validation Sheet" sheetId="5" r:id="rId7"/>
+    <sheet name="NavigateOutput" sheetId="10" r:id="rId6"/>
+    <sheet name="WriterOutput" sheetId="4" r:id="rId7"/>
+    <sheet name="Validation Sheet" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>last name</t>
   </si>
@@ -234,6 +235,30 @@
   </si>
   <si>
     <t>password : admin</t>
+  </si>
+  <si>
+    <t>submitGSK</t>
+  </si>
+  <si>
+    <t>Navigate2</t>
+  </si>
+  <si>
+    <t>Stage Type</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Stage xml</t>
+  </si>
+  <si>
+    <t>&lt;process name="__selection__Submit registration" type="object" runmode="Exclusive"&gt;&lt;stage stageid="1511d2b7-6112-42fd-8899-e2c4a49fbbe3" name="Navigate2" type="Navigate" interval="0.1"&gt;&lt;subsheetid&gt;8f88c72c-fd7c-43e1-a1ce-f1466eded1e3&lt;/subsheetid&gt;&lt;loginhibit /&gt;&lt;display x="-30" y="-60" /&gt;&lt;step&gt;&lt;element id="949789a6-b99b-4556-8ea1-19a0c47a37b3" /&gt;&lt;action&gt;&lt;id&gt;HTMLClickCentre&lt;/id&gt;&lt;/action&gt;&lt;/step&gt;&lt;step&gt;&lt;element id="1bb2afb4-7f69-451b-b0d0-68b2b722d834" /&gt;&lt;action&gt;&lt;id&gt;SendKeys&lt;/id&gt;&lt;arguments&gt;&lt;argument&gt;&lt;id&gt;newtext&lt;/id&gt;&lt;value&gt;[firstname]&lt;/value&gt;&lt;/argument&gt;&lt;argument&gt;&lt;id&gt;interval&lt;/id&gt;&lt;value&gt;0.1&lt;/value&gt;&lt;/argument&gt;&lt;/arguments&gt;&lt;/action&gt;&lt;/step&gt;&lt;step&gt;&lt;element id="90d455a3-db01-4ac2-99cd-7b934ec091fd" /&gt;&lt;action&gt;&lt;id&gt;HTMLClickCentre&lt;/id&gt;&lt;/action&gt;&lt;/step&gt;&lt;step&gt;&lt;element id="1bb2afb4-7f69-451b-b0d0-68b2b722d834" /&gt;&lt;action&gt;&lt;id&gt;SendKeys&lt;/id&gt;&lt;arguments&gt;&lt;argument&gt;&lt;id&gt;newtext&lt;/id&gt;&lt;value&gt;[lastname]&lt;/value&gt;&lt;/argument&gt;&lt;argument&gt;&lt;id&gt;interval&lt;/id&gt;&lt;value&gt;0.1&lt;/value&gt;&lt;/argument&gt;&lt;/arguments&gt;&lt;/action&gt;&lt;/step&gt;&lt;step&gt;&lt;element id="142d7b54-d61c-4314-a09a-dc4fd38459f2" /&gt;&lt;action&gt;&lt;id&gt;HTMLClickCentre&lt;/id&gt;&lt;/action&gt;&lt;/step&gt;&lt;step&gt;&lt;element id="1bb2afb4-7f69-451b-b0d0-68b2b722d834" /&gt;&lt;action&gt;&lt;id&gt;SendKeys&lt;/id&gt;&lt;arguments&gt;&lt;argument&gt;&lt;id&gt;newtext&lt;/id&gt;&lt;value&gt;[country]&lt;/value&gt;&lt;/argument&gt;&lt;argument&gt;&lt;id&gt;interval&lt;/id&gt;&lt;value&gt;0.1&lt;/value&gt;&lt;/argument&gt;&lt;/arguments&gt;&lt;/action&gt;&lt;/step&gt;&lt;/stage&gt;&lt;/process&gt;</t>
   </si>
 </sst>
 </file>
@@ -278,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -310,11 +335,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -344,6 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,150 +1419,248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B8946B-D36E-4A24-B49F-3AC6451824A7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A213EEF-8AE6-4CD0-8338-7E344999690F}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2D4FA9-D01B-4FD8-948C-0A813A2BB2AB}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA6BEB7-EBAD-44C6-B98A-D6F21E2AA860}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,11 +1722,11 @@
         <v>#N/A</v>
       </c>
       <c r="E2" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B2,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G2,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B2,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G2,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F2" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B2,WriterOutput!B4:G50,4,FALSE)='Expected Output'!E2,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B2,WriterOutput!C4:H50,4,FALSE)='Expected Output'!E2,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G2" s="7"/>
@@ -1621,11 +1756,11 @@
         <v>#N/A</v>
       </c>
       <c r="E3" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B3,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G3,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B3,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G3,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F3" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B3,WriterOutput!B5:G51,4,FALSE)='Expected Output'!E3,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B3,WriterOutput!C5:H51,4,FALSE)='Expected Output'!E3,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G3" s="7"/>
@@ -1655,11 +1790,11 @@
         <v>#N/A</v>
       </c>
       <c r="E4" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B4,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G4,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B4,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G4,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F4" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B4,WriterOutput!B6:G52,4,FALSE)='Expected Output'!E4,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B4,WriterOutput!C6:H52,4,FALSE)='Expected Output'!E4,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G4" s="7"/>
@@ -1686,11 +1821,11 @@
         <v>#N/A</v>
       </c>
       <c r="E5" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B5,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G5,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B5,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G5,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F5" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B5,WriterOutput!B7:G53,4,FALSE)='Expected Output'!E5,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B5,WriterOutput!C7:H53,4,FALSE)='Expected Output'!E5,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G5" s="7"/>
@@ -1717,11 +1852,11 @@
         <v>#N/A</v>
       </c>
       <c r="E6" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B6,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G6,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B6,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G6,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F6" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B6,WriterOutput!B8:G54,4,FALSE)='Expected Output'!E6,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B6,WriterOutput!C8:H54,4,FALSE)='Expected Output'!E6,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G6" s="7"/>
@@ -1748,11 +1883,11 @@
         <v>#N/A</v>
       </c>
       <c r="E7" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B7,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G7,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B7,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G7,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F7" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B7,WriterOutput!B9:G55,4,FALSE)='Expected Output'!E7,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B7,WriterOutput!C9:H55,4,FALSE)='Expected Output'!E7,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G7" s="7"/>
@@ -1779,11 +1914,11 @@
         <v>#N/A</v>
       </c>
       <c r="E8" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B8,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G8,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B8,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G8,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F8" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B8,WriterOutput!B10:G56,4,FALSE)='Expected Output'!E8,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B8,WriterOutput!C10:H56,4,FALSE)='Expected Output'!E8,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G8" s="7"/>
@@ -1810,11 +1945,11 @@
         <v>#N/A</v>
       </c>
       <c r="E9" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B9,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G9,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B9,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G9,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F9" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B9,WriterOutput!B11:G57,4,FALSE)='Expected Output'!E9,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B9,WriterOutput!C11:H57,4,FALSE)='Expected Output'!E9,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G9" s="7"/>
@@ -1841,11 +1976,11 @@
         <v>#N/A</v>
       </c>
       <c r="E10" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B10,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G10,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B10,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G10,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F10" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B10,WriterOutput!B12:G58,4,FALSE)='Expected Output'!E10,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B10,WriterOutput!C12:H58,4,FALSE)='Expected Output'!E10,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G10" s="7"/>
@@ -1872,11 +2007,11 @@
         <v>#N/A</v>
       </c>
       <c r="E11" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B11,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G11,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B11,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G11,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F11" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B11,WriterOutput!B13:G59,4,FALSE)='Expected Output'!E11,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B11,WriterOutput!C13:H59,4,FALSE)='Expected Output'!E11,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G11" s="7"/>
@@ -1903,11 +2038,11 @@
         <v>#N/A</v>
       </c>
       <c r="E12" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B12,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G12,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B12,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G12,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F12" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B12,WriterOutput!B14:G60,4,FALSE)='Expected Output'!E12,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B12,WriterOutput!C14:H60,4,FALSE)='Expected Output'!E12,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G12" s="7"/>
@@ -1947,11 +2082,11 @@
         <v>#N/A</v>
       </c>
       <c r="E13" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B13,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G13,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B13,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G13,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F13" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B13,WriterOutput!B15:G61,4,FALSE)='Expected Output'!E13,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B13,WriterOutput!C15:H61,4,FALSE)='Expected Output'!E13,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G13" s="7"/>
@@ -1989,11 +2124,11 @@
         <v>#N/A</v>
       </c>
       <c r="E14" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B14,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G14,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B14,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G14,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F14" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B14,WriterOutput!B16:G62,4,FALSE)='Expected Output'!E14,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B14,WriterOutput!C16:H62,4,FALSE)='Expected Output'!E14,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G14" s="7"/>
@@ -2031,11 +2166,11 @@
         <v>#N/A</v>
       </c>
       <c r="E15" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B15,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G15,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B15,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G15,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F15" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B15,WriterOutput!B17:G63,4,FALSE)='Expected Output'!E15,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B15,WriterOutput!C17:H63,4,FALSE)='Expected Output'!E15,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G15" s="7"/>
@@ -2073,11 +2208,11 @@
         <v>#N/A</v>
       </c>
       <c r="E16" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B16,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G16,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B16,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G16,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F16" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B16,WriterOutput!B18:G64,4,FALSE)='Expected Output'!E16,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B16,WriterOutput!C18:H64,4,FALSE)='Expected Output'!E16,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G16" s="7"/>
@@ -2115,11 +2250,11 @@
         <v>#N/A</v>
       </c>
       <c r="E17" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B17,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G17,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B17,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G17,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F17" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B17,WriterOutput!B19:G65,4,FALSE)='Expected Output'!E17,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B17,WriterOutput!C19:H65,4,FALSE)='Expected Output'!E17,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G17" s="7"/>
@@ -2157,11 +2292,11 @@
         <v>#N/A</v>
       </c>
       <c r="E18" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B18,RegQGetItemData!$E$4:$J$28,6,FALSE)='Expected Output'!G18,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B18,RegQGetItemData!$F$4:$K$28,6,FALSE)='Expected Output'!G18,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="F18" s="7" t="e">
-        <f>IF(VLOOKUP('Expected Output'!B18,WriterOutput!B20:G66,4,FALSE)='Expected Output'!E18,"pass","fail")</f>
+        <f>IF(VLOOKUP('Expected Output'!B18,WriterOutput!C20:H66,4,FALSE)='Expected Output'!E18,"pass","fail")</f>
         <v>#N/A</v>
       </c>
       <c r="G18" s="7"/>
